--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_drago\Desktop\Кванториада\kvantoriada-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D4B009-6C10-43B0-96BC-468A97C180FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC02114-D2F6-4C1E-B7BB-0E24BD94E6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{411647C5-926F-4879-89C3-842B3EBDE34B}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>команда</t>
-  </si>
-  <si>
-    <t>действие</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +49,93 @@
   </si>
   <si>
     <t>аварийная остановка</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Выключение двигателя 2</t>
+  </si>
+  <si>
+    <t>Выключение двигателя 1</t>
+  </si>
+  <si>
+    <t>1 двигатель вперёд</t>
+  </si>
+  <si>
+    <t>2 двигатель вперёд</t>
+  </si>
+  <si>
+    <t>1 двигатель назад</t>
+  </si>
+  <si>
+    <t>2 двигатель назад</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>вкл погрузку мусора</t>
+  </si>
+  <si>
+    <t>выкл погрузку мусора</t>
+  </si>
+  <si>
+    <t>закрыть бачок</t>
+  </si>
+  <si>
+    <t>вкл выгрузка</t>
+  </si>
+  <si>
+    <t>выкл выгрузка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pins</t>
+  </si>
+  <si>
+    <t>8,9,12,2,3</t>
+  </si>
+  <si>
+    <t>открыть бачок</t>
   </si>
 </sst>
 </file>
@@ -72,7 +153,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
@@ -107,7 +187,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -417,47 +508,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA1569-CBCF-404A-ACFD-95D7339E670D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"&lt;button onclick=""httpGet('/front?cmd="&amp;A3&amp;"');""&gt;"&amp;B3&amp;"&lt;/button&gt;&lt;br /&gt;"</f>
+        <v>&lt;button onclick="httpGet('/front?cmd=S');"&gt;вернуть статистику&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C10" si="0">"&lt;button onclick=""httpGet('/front?cmd="&amp;A4&amp;"');""&gt;"&amp;B4&amp;"&lt;/button&gt;&lt;br /&gt;"</f>
+        <v>&lt;button onclick="httpGet('/front?cmd=A');"&gt;автономный режим&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=E');"&gt;аварийная остановка&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=R');"&gt;1 двигатель вперёд&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=D');"&gt;1 двигатель назад&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=U');"&gt;2 двигатель вперёд&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=L');"&gt;2 двигатель назад&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=Z');"&gt;Выключение двигателя 1&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"&lt;button onclick=""httpGet('/front?cmd="&amp;A11&amp;"');""&gt;"&amp;B11&amp;"&lt;/button&gt;&lt;br /&gt;"</f>
+        <v>&lt;button onclick="httpGet('/front?cmd=J');"&gt;Выключение двигателя 2&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D11">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"&lt;button onclick=""httpGet('/front?cmd="&amp;A12&amp;"');""&gt;"&amp;B12&amp;"&lt;/button&gt;&lt;br /&gt;"</f>
+        <v>&lt;button onclick="httpGet('/front?cmd=W');"&gt;вкл погрузку мусора&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C17" si="1">"&lt;button onclick=""httpGet('/front?cmd="&amp;A13&amp;"');""&gt;"&amp;B13&amp;"&lt;/button&gt;&lt;br /&gt;"</f>
+        <v>&lt;button onclick="httpGet('/front?cmd=Q');"&gt;выкл погрузку мусора&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=V');"&gt;открыть бачок&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=B');"&gt;закрыть бачок&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=T');"&gt;вкл выгрузка&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;button onclick="httpGet('/front?cmd=N');"&gt;выкл выгрузка&lt;/button&gt;&lt;br /&gt;</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
